--- a/任务及绩效评价/SE2019春-G11-第一周项目介绍PPT任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第一周项目介绍PPT任务以及绩效评价.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
-    <sheet name="20180323" sheetId="4" r:id="rId1"/>
+    <sheet name="第一周任务清单" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
